--- a/docs/juv_messy_huc_exploration.xlsx
+++ b/docs/juv_messy_huc_exploration.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Rory/Desktop/Grad School/Capstone - ESA Listed Fish Species/ESA_Permits_Capstone/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE9FE445-252A-A14B-A2A3-BBBE8E8869E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{8AC5761E-B6B8-F248-8BCD-A19168CE9130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="-5600" windowWidth="38400" windowHeight="21600"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4128" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4132" uniqueCount="389">
   <si>
     <t>FileNumber</t>
   </si>
@@ -1194,6 +1194,9 @@
   </si>
   <si>
     <t>most likely lumped into OR</t>
+  </si>
+  <si>
+    <t>specific HUC from StreamName</t>
   </si>
 </sst>
 </file>
@@ -2050,8 +2053,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="Q39" sqref="Q39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R84" sqref="R84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2063,6 +2066,7 @@
     <col min="18" max="18" width="10.83203125" style="3"/>
     <col min="19" max="28" width="0" hidden="1" customWidth="1"/>
     <col min="29" max="29" width="0" style="2" hidden="1" customWidth="1"/>
+    <col min="30" max="30" width="22" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="34" x14ac:dyDescent="0.2">
@@ -9440,8 +9444,14 @@
       <c r="AC80" s="2" t="s">
         <v>209</v>
       </c>
+      <c r="AD80">
+        <v>18010111</v>
+      </c>
+      <c r="AE80" t="s">
+        <v>388</v>
+      </c>
     </row>
-    <row r="81" spans="1:29" ht="68" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:31" ht="68" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>80</v>
       </c>
@@ -9529,8 +9539,14 @@
       <c r="AC81" s="2" t="s">
         <v>163</v>
       </c>
+      <c r="AD81">
+        <v>18010111</v>
+      </c>
+      <c r="AE81" t="s">
+        <v>388</v>
+      </c>
     </row>
-    <row r="82" spans="1:29" ht="68" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:31" ht="68" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>81</v>
       </c>
@@ -9618,8 +9634,14 @@
       <c r="AC82" s="2" t="s">
         <v>212</v>
       </c>
+      <c r="AD82">
+        <v>18010111</v>
+      </c>
+      <c r="AE82" t="s">
+        <v>388</v>
+      </c>
     </row>
-    <row r="83" spans="1:29" ht="68" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:31" ht="68" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>82</v>
       </c>
@@ -9708,7 +9730,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="84" spans="1:29" ht="85" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:31" ht="85" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>83</v>
       </c>
@@ -9796,8 +9818,11 @@
       <c r="AC84" s="2" t="s">
         <v>228</v>
       </c>
+      <c r="AD84" t="s">
+        <v>222</v>
+      </c>
     </row>
-    <row r="85" spans="1:29" ht="102" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:31" ht="102" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>84</v>
       </c>
@@ -9886,7 +9911,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="86" spans="1:29" ht="68" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:31" ht="68" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>85</v>
       </c>
@@ -9975,7 +10000,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="87" spans="1:29" ht="51" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:31" ht="51" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>86</v>
       </c>
@@ -10064,7 +10089,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="88" spans="1:29" ht="85" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:31" ht="85" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>87</v>
       </c>
@@ -10153,7 +10178,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="89" spans="1:29" ht="102" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:31" ht="102" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>88</v>
       </c>
@@ -10242,7 +10267,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="90" spans="1:29" ht="85" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:31" ht="85" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>89</v>
       </c>
@@ -10331,7 +10356,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="91" spans="1:29" ht="85" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:31" ht="85" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>90</v>
       </c>
@@ -10420,7 +10445,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="92" spans="1:29" ht="85" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:31" ht="85" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>91</v>
       </c>
@@ -10509,7 +10534,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="93" spans="1:29" ht="85" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:31" ht="85" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>92</v>
       </c>
@@ -10598,7 +10623,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="94" spans="1:29" ht="119" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:31" ht="119" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>93</v>
       </c>
@@ -10687,7 +10712,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="95" spans="1:29" ht="119" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:31" ht="119" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>94</v>
       </c>
@@ -10776,7 +10801,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="96" spans="1:29" ht="119" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:31" ht="119" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>95</v>
       </c>
